--- a/biology/Zoologie/Humbertium/Humbertium.xlsx
+++ b/biology/Zoologie/Humbertium/Humbertium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Humbertium est un genre de vers plats terrestres de la famille des Geoplanidae (sous-famille des Bipaliinae).
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Humbertium tire son nom du naturaliste suisse Aloïs Humbert (1829-1887) qui a décrit plusieurs espèces du Sri Lanka, désormais rattachées à ce genre[Publ. orig. 1],[Publ. orig. 2].
 </t>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces du genre Humbertium se caractérisent par la présence d'une papille pénienne bien développée dans l'appareil copulateur, similaire à celle de Bipalium, mais avec les ovovitelloductes entrant dans l'atrium femelle antérieurement et non postérieurement comme chez Bipalium[Publ. orig. 2].
 </t>
@@ -573,11 +589,48 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Le genre Humbertium a été créé en 2001 par Robert Edward Ogren (d) (1922-2005), zoologiste américain, et Ronald Sluys (d), zoologiste néerlandais. Le nom valide complet (avec auteur) de ce taxon est ainsi Humbertium Ogren &amp; Sluys, 2001[1].
-Liste des espèces
-Selon la base de données World Register of Marine Species                               (18 janvier 2024)[1], le genre Humbertium contient les espèces suivantes :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Humbertium a été créé en 2001 par Robert Edward Ogren (d) (1922-2005), zoologiste américain, et Ronald Sluys (d), zoologiste néerlandais. Le nom valide complet (avec auteur) de ce taxon est ainsi Humbertium Ogren &amp; Sluys, 2001.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Humbertium</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Humbertium</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon la base de données World Register of Marine Species                               (18 janvier 2024), le genre Humbertium contient les espèces suivantes :
 Humbertium core (de Beauchamp, 1930)
 Humbertium depressum (Ritter-Zahony R., 1905)
 Humbertium diana (Humbert, 1862)
@@ -597,14 +650,48 @@
 Humbertium subboreale (Sabussowa, 1925)
 Humbertium umbrinum (Geba, 1909)
 Humbertium voigti (Graff, 1899)
-Humbertium woodworthi (Graff, 1899)
-Synonymes, reclassements, noms invalides
-D'après World Register of Marine Species                               (18 janvier 2024)[1], les espèces suivantes sont des noms oubliés, donc invalides :
+Humbertium woodworthi (Graff, 1899)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Humbertium</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Humbertium</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Synonymes, reclassements, noms invalides</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>D'après World Register of Marine Species                               (18 janvier 2024), les espèces suivantes sont des noms oubliés, donc invalides :
 Humbertium ceres (Moseley, 1874)
 Humbertium ferrugineum (Graff, 1899)
 Humbertium girardi (Graff, 1899)
 Humbertium sikorai (Graff, 1899)
-D'après World Register of Marine Species                               (18 janvier 2024)[1], les espèces suivantes sont des synonymes :
+D'après World Register of Marine Species                               (18 janvier 2024), les espèces suivantes sont des synonymes :
 l'espèce Humbertium covidum Justine, Gastineau, Gros, Gey, Ruzzier, Charles &amp; Winsor, 2022 a été déplacée dans le genre Vermiviatum sous le nom Vermiviatum covidum (Justine, Gastineau, Gros, Gey, Ruzzier, Charles &amp; Winsor, 2022) Sola &amp; Sluys, 2023 ;
 l'espèce Humbertium negritorum (Beauchamp, 1930) est Diversibipalium negritorum (Graff, 1899) ;
 l'espèce Humbertium phoebe Ogren &amp; Sluys, 2001 est Humbertium phebe (Humbert &amp; Claparède, 1862). Il s'agit d'une erreur orthographique ;
